--- a/results/data/AA4.xlsx
+++ b/results/data/AA4.xlsx
@@ -444,22 +444,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4342855.818000017</v>
+        <v>4430451.839000019</v>
       </c>
       <c r="C2">
-        <v>1841834.458000002</v>
+        <v>1841392.738000003</v>
       </c>
       <c r="D2">
-        <v>284329.7720000002</v>
+        <v>284335.0719999999</v>
       </c>
       <c r="E2">
-        <v>4352785.757000007</v>
+        <v>4488496.80300001</v>
       </c>
       <c r="F2">
-        <v>1987808.208</v>
+        <v>1987895.266000001</v>
       </c>
       <c r="G2">
-        <v>238587.557</v>
+        <v>241172.399</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,22 +467,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>4614039.49299999</v>
+        <v>4813409.601999978</v>
       </c>
       <c r="C3">
-        <v>1827352.332999998</v>
+        <v>1826769.926</v>
       </c>
       <c r="D3">
-        <v>268113.1960000001</v>
+        <v>268117.2559999998</v>
       </c>
       <c r="E3">
-        <v>4761949.670999987</v>
+        <v>4888585.296999977</v>
       </c>
       <c r="F3">
-        <v>1985172.543999997</v>
+        <v>1985415.666999999</v>
       </c>
       <c r="G3">
-        <v>231680.6449999997</v>
+        <v>232648.746</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +490,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>4569295.694000015</v>
+        <v>4798895.866999996</v>
       </c>
       <c r="C4">
-        <v>1826265.656999996</v>
+        <v>1825895.086999996</v>
       </c>
       <c r="D4">
-        <v>314434.401</v>
+        <v>252090.1770000001</v>
       </c>
       <c r="E4">
-        <v>4845340.402000012</v>
+        <v>5012435.837000033</v>
       </c>
       <c r="F4">
-        <v>2103817.036999999</v>
+        <v>2104069.770999999</v>
       </c>
       <c r="G4">
-        <v>716770.5749999994</v>
+        <v>241855.4922120001</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,22 +513,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5220836.198999998</v>
+        <v>5459826.215999954</v>
       </c>
       <c r="C5">
-        <v>1829569.533000004</v>
+        <v>1829298.858000002</v>
       </c>
       <c r="D5">
-        <v>255118.85</v>
+        <v>255064.4958420001</v>
       </c>
       <c r="E5">
-        <v>5237559.046</v>
+        <v>5402020.475999954</v>
       </c>
       <c r="F5">
-        <v>2306216.620000007</v>
+        <v>2306473.235000007</v>
       </c>
       <c r="G5">
-        <v>293063.1259999996</v>
+        <v>271051.334642</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -536,22 +536,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>4885859.564000026</v>
+        <v>5078367.331999972</v>
       </c>
       <c r="C6">
-        <v>1839089.961000004</v>
+        <v>1838765.289000001</v>
       </c>
       <c r="D6">
-        <v>294803.2409999997</v>
+        <v>294418.201</v>
       </c>
       <c r="E6">
-        <v>5950323.927000024</v>
+        <v>6088796.679999981</v>
       </c>
       <c r="F6">
-        <v>2455687.601000007</v>
+        <v>2456039.330000006</v>
       </c>
       <c r="G6">
-        <v>297037.9190000002</v>
+        <v>297127.554</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -559,22 +559,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>4295471.450000022</v>
+        <v>4534504.109000016</v>
       </c>
       <c r="C7">
-        <v>1958786.070000002</v>
+        <v>1958333.170000002</v>
       </c>
       <c r="D7">
-        <v>274664.5049999999</v>
+        <v>274656.1250000001</v>
       </c>
       <c r="E7">
-        <v>5560858.931000032</v>
+        <v>5760787.090999971</v>
       </c>
       <c r="F7">
-        <v>2727114.902999999</v>
+        <v>2727369.607000004</v>
       </c>
       <c r="G7">
-        <v>313054.683</v>
+        <v>313127.383</v>
       </c>
     </row>
   </sheetData>

--- a/results/data/AA4.xlsx
+++ b/results/data/AA4.xlsx
@@ -476,7 +476,7 @@
         <v>268117.2559999998</v>
       </c>
       <c r="E3">
-        <v>4888585.296999977</v>
+        <v>4888585.296999976</v>
       </c>
       <c r="F3">
         <v>1985415.666999999</v>
@@ -499,7 +499,7 @@
         <v>252090.1770000001</v>
       </c>
       <c r="E4">
-        <v>5012435.837000033</v>
+        <v>5012435.837000034</v>
       </c>
       <c r="F4">
         <v>2104069.770999999</v>
@@ -513,7 +513,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5459826.215999954</v>
+        <v>5459826.215999953</v>
       </c>
       <c r="C5">
         <v>1829298.858000002</v>
@@ -536,7 +536,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>5078367.331999972</v>
+        <v>5078367.331999974</v>
       </c>
       <c r="C6">
         <v>1838765.289000001</v>
@@ -568,7 +568,7 @@
         <v>274656.1250000001</v>
       </c>
       <c r="E7">
-        <v>5760787.090999971</v>
+        <v>5760787.09099997</v>
       </c>
       <c r="F7">
         <v>2727369.607000004</v>
